--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cfh-Sell.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cfh-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.154625444115675</v>
+        <v>0.176084</v>
       </c>
       <c r="H2">
-        <v>0.154625444115675</v>
+        <v>0.5282519999999999</v>
       </c>
       <c r="I2">
-        <v>0.002534275343446636</v>
+        <v>0.002540394622276418</v>
       </c>
       <c r="J2">
-        <v>0.002534275343446636</v>
+        <v>0.002540394622276417</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.52355150852913</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N2">
-        <v>6.52355150852913</v>
+        <v>0.766316</v>
       </c>
       <c r="O2">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P2">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q2">
-        <v>1.008707049217798</v>
+        <v>0.04497866218133333</v>
       </c>
       <c r="R2">
-        <v>1.008707049217798</v>
+        <v>0.4048079596319999</v>
       </c>
       <c r="S2">
-        <v>6.229897133449724E-05</v>
+        <v>2.009218265635608E-06</v>
       </c>
       <c r="T2">
-        <v>6.229897133449724E-05</v>
+        <v>2.009218265635608E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.154625444115675</v>
+        <v>0.176084</v>
       </c>
       <c r="H3">
-        <v>0.154625444115675</v>
+        <v>0.5282519999999999</v>
       </c>
       <c r="I3">
-        <v>0.002534275343446636</v>
+        <v>0.002540394622276418</v>
       </c>
       <c r="J3">
-        <v>0.002534275343446636</v>
+        <v>0.002540394622276417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.47680559342688</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N3">
-        <v>7.47680559342688</v>
+        <v>150.732736</v>
       </c>
       <c r="O3">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P3">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q3">
-        <v>1.156104385450194</v>
+        <v>8.847207695274667</v>
       </c>
       <c r="R3">
-        <v>1.156104385450194</v>
+        <v>79.624869257472</v>
       </c>
       <c r="S3">
-        <v>7.140240967355119E-05</v>
+        <v>0.0003952089821958957</v>
       </c>
       <c r="T3">
-        <v>7.140240967355119E-05</v>
+        <v>0.0003952089821958956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.154625444115675</v>
+        <v>0.176084</v>
       </c>
       <c r="H4">
-        <v>0.154625444115675</v>
+        <v>0.5282519999999999</v>
       </c>
       <c r="I4">
-        <v>0.002534275343446636</v>
+        <v>0.002540394622276418</v>
       </c>
       <c r="J4">
-        <v>0.002534275343446636</v>
+        <v>0.002540394622276417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>251.372816573784</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N4">
-        <v>251.372816573784</v>
+        <v>44.924405</v>
       </c>
       <c r="O4">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P4">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q4">
-        <v>38.86863340132946</v>
+        <v>2.636822976673333</v>
       </c>
       <c r="R4">
-        <v>38.86863340132946</v>
+        <v>23.73140679006</v>
       </c>
       <c r="S4">
-        <v>0.002400573962438588</v>
+        <v>0.000117788138442642</v>
       </c>
       <c r="T4">
-        <v>0.002400573962438588</v>
+        <v>0.000117788138442642</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.6083910444795</v>
+        <v>0.176084</v>
       </c>
       <c r="H5">
-        <v>11.6083910444795</v>
+        <v>0.5282519999999999</v>
       </c>
       <c r="I5">
-        <v>0.1902588501482521</v>
+        <v>0.002540394622276418</v>
       </c>
       <c r="J5">
-        <v>0.1902588501482521</v>
+        <v>0.002540394622276417</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.52355150852913</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N5">
-        <v>6.52355150852913</v>
+        <v>772.483246</v>
       </c>
       <c r="O5">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P5">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q5">
-        <v>75.7279369098103</v>
+        <v>45.34064662955466</v>
       </c>
       <c r="R5">
-        <v>75.7279369098103</v>
+        <v>408.065819665992</v>
       </c>
       <c r="S5">
-        <v>0.004677049272554685</v>
+        <v>0.002025388283372244</v>
       </c>
       <c r="T5">
-        <v>0.004677049272554685</v>
+        <v>0.002025388283372244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.6083910444795</v>
+        <v>12.034054</v>
       </c>
       <c r="H6">
-        <v>11.6083910444795</v>
+        <v>36.102162</v>
       </c>
       <c r="I6">
-        <v>0.1902588501482521</v>
+        <v>0.1736173988879399</v>
       </c>
       <c r="J6">
-        <v>0.1902588501482521</v>
+        <v>0.1736173988879399</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>7.47680559342688</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N6">
-        <v>7.47680559342688</v>
+        <v>0.766316</v>
       </c>
       <c r="O6">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P6">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q6">
-        <v>86.79368309205083</v>
+        <v>3.073962708354666</v>
       </c>
       <c r="R6">
-        <v>86.79368309205083</v>
+        <v>27.665664375192</v>
       </c>
       <c r="S6">
-        <v>0.005360483184052388</v>
+        <v>0.0001373153784923403</v>
       </c>
       <c r="T6">
-        <v>0.005360483184052388</v>
+        <v>0.0001373153784923403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6083910444795</v>
+        <v>12.034054</v>
       </c>
       <c r="H7">
-        <v>11.6083910444795</v>
+        <v>36.102162</v>
       </c>
       <c r="I7">
-        <v>0.1902588501482521</v>
+        <v>0.1736173988879399</v>
       </c>
       <c r="J7">
-        <v>0.1902588501482521</v>
+        <v>0.1736173988879399</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>251.372816573784</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N7">
-        <v>251.372816573784</v>
+        <v>150.732736</v>
       </c>
       <c r="O7">
-        <v>0.947242756650817</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P7">
-        <v>0.947242756650817</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q7">
-        <v>2918.033952740702</v>
+        <v>604.6419615305814</v>
       </c>
       <c r="R7">
-        <v>2918.033952740702</v>
+        <v>5441.777653775232</v>
       </c>
       <c r="S7">
-        <v>0.1802213176916451</v>
+        <v>0.02700964444827723</v>
       </c>
       <c r="T7">
-        <v>0.1802213176916451</v>
+        <v>0.02700964444827723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.4075779698091</v>
+        <v>12.034054</v>
       </c>
       <c r="H8">
-        <v>13.4075779698091</v>
+        <v>36.102162</v>
       </c>
       <c r="I8">
-        <v>0.2197471086246729</v>
+        <v>0.1736173988879399</v>
       </c>
       <c r="J8">
-        <v>0.2197471086246729</v>
+        <v>0.1736173988879399</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.52355150852913</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N8">
-        <v>6.52355150852913</v>
+        <v>44.924405</v>
       </c>
       <c r="O8">
-        <v>0.02458255828262532</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P8">
-        <v>0.02458255828262532</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q8">
-        <v>87.46502549067009</v>
+        <v>180.2075718959566</v>
       </c>
       <c r="R8">
-        <v>87.46502549067009</v>
+        <v>1621.86814706361</v>
       </c>
       <c r="S8">
-        <v>0.005401946105204418</v>
+        <v>0.008049958080110796</v>
       </c>
       <c r="T8">
-        <v>0.005401946105204418</v>
+        <v>0.008049958080110798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.4075779698091</v>
+        <v>12.034054</v>
       </c>
       <c r="H9">
-        <v>13.4075779698091</v>
+        <v>36.102162</v>
       </c>
       <c r="I9">
-        <v>0.2197471086246729</v>
+        <v>0.1736173988879399</v>
       </c>
       <c r="J9">
-        <v>0.2197471086246729</v>
+        <v>0.1736173988879399</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.47680559342688</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N9">
-        <v>7.47680559342688</v>
+        <v>772.483246</v>
       </c>
       <c r="O9">
-        <v>0.02817468506655764</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P9">
-        <v>0.02817468506655764</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q9">
-        <v>100.2458539589757</v>
+        <v>3098.701698819761</v>
       </c>
       <c r="R9">
-        <v>100.2458539589757</v>
+        <v>27888.31528937785</v>
       </c>
       <c r="S9">
-        <v>0.006191305579786791</v>
+        <v>0.1384204809810596</v>
       </c>
       <c r="T9">
-        <v>0.006191305579786791</v>
+        <v>0.1384204809810596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.4075779698091</v>
+        <v>14.40023333333333</v>
       </c>
       <c r="H10">
-        <v>13.4075779698091</v>
+        <v>43.2007</v>
       </c>
       <c r="I10">
-        <v>0.2197471086246729</v>
+        <v>0.207754681399364</v>
       </c>
       <c r="J10">
-        <v>0.2197471086246729</v>
+        <v>0.207754681399364</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>251.372816573784</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N10">
-        <v>251.372816573784</v>
+        <v>0.766316</v>
       </c>
       <c r="O10">
-        <v>0.947242756650817</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P10">
-        <v>0.947242756650817</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q10">
-        <v>3370.30063770353</v>
+        <v>3.678376402355555</v>
       </c>
       <c r="R10">
-        <v>3370.30063770353</v>
+        <v>33.10538762119999</v>
       </c>
       <c r="S10">
-        <v>0.2081538569396817</v>
+        <v>0.0001643148261213289</v>
       </c>
       <c r="T10">
-        <v>0.2081538569396817</v>
+        <v>0.0001643148261213289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.5863106765756</v>
+        <v>14.40023333333333</v>
       </c>
       <c r="H11">
-        <v>19.5863106765756</v>
+        <v>43.2007</v>
       </c>
       <c r="I11">
-        <v>0.3210151117147171</v>
+        <v>0.207754681399364</v>
       </c>
       <c r="J11">
-        <v>0.3210151117147171</v>
+        <v>0.207754681399364</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.52355150852913</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N11">
-        <v>6.52355150852913</v>
+        <v>150.732736</v>
       </c>
       <c r="O11">
-        <v>0.02458255828262532</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P11">
-        <v>0.02458255828262532</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q11">
-        <v>127.772306560695</v>
+        <v>723.5288564572445</v>
       </c>
       <c r="R11">
-        <v>127.772306560695</v>
+        <v>6511.759708115201</v>
       </c>
       <c r="S11">
-        <v>0.00789137269333051</v>
+        <v>0.03232037867750663</v>
       </c>
       <c r="T11">
-        <v>0.00789137269333051</v>
+        <v>0.03232037867750662</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.5863106765756</v>
+        <v>14.40023333333333</v>
       </c>
       <c r="H12">
-        <v>19.5863106765756</v>
+        <v>43.2007</v>
       </c>
       <c r="I12">
-        <v>0.3210151117147171</v>
+        <v>0.207754681399364</v>
       </c>
       <c r="J12">
-        <v>0.3210151117147171</v>
+        <v>0.207754681399364</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.47680559342688</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N12">
-        <v>7.47680559342688</v>
+        <v>44.924405</v>
       </c>
       <c r="O12">
-        <v>0.02817468506655764</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P12">
-        <v>0.02817468506655764</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q12">
-        <v>146.4430372212171</v>
+        <v>215.6406381203889</v>
       </c>
       <c r="R12">
-        <v>146.4430372212171</v>
+        <v>1940.7657430835</v>
       </c>
       <c r="S12">
-        <v>0.009044499674167972</v>
+        <v>0.009632770027220044</v>
       </c>
       <c r="T12">
-        <v>0.009044499674167972</v>
+        <v>0.009632770027220046</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.5863106765756</v>
+        <v>14.40023333333333</v>
       </c>
       <c r="H13">
-        <v>19.5863106765756</v>
+        <v>43.2007</v>
       </c>
       <c r="I13">
-        <v>0.3210151117147171</v>
+        <v>0.207754681399364</v>
       </c>
       <c r="J13">
-        <v>0.3210151117147171</v>
+        <v>0.207754681399364</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>251.372816573784</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N13">
-        <v>251.372816573784</v>
+        <v>772.483246</v>
       </c>
       <c r="O13">
-        <v>0.947242756650817</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P13">
-        <v>0.947242756650817</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q13">
-        <v>4923.466081059985</v>
+        <v>3707.979662830244</v>
       </c>
       <c r="R13">
-        <v>4923.466081059985</v>
+        <v>33371.8169654722</v>
       </c>
       <c r="S13">
-        <v>0.3040792393472186</v>
+        <v>0.165637217868516</v>
       </c>
       <c r="T13">
-        <v>0.3040792393472186</v>
+        <v>0.165637217868516</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.28191750472902</v>
+        <v>20.197588</v>
       </c>
       <c r="H14">
-        <v>4.28191750472902</v>
+        <v>60.592764</v>
       </c>
       <c r="I14">
-        <v>0.07017963968976072</v>
+        <v>0.2913941297230567</v>
       </c>
       <c r="J14">
-        <v>0.07017963968976072</v>
+        <v>0.2913941297230566</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.52355150852913</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N14">
-        <v>6.52355150852913</v>
+        <v>0.766316</v>
       </c>
       <c r="O14">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P14">
-        <v>0.02458255828262532</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q14">
-        <v>27.93330939737229</v>
+        <v>5.159244948602666</v>
       </c>
       <c r="R14">
-        <v>27.93330939737229</v>
+        <v>46.433204537424</v>
       </c>
       <c r="S14">
-        <v>0.001725195082927188</v>
+        <v>0.0002304659295074088</v>
       </c>
       <c r="T14">
-        <v>0.001725195082927188</v>
+        <v>0.0002304659295074088</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.28191750472902</v>
+        <v>20.197588</v>
       </c>
       <c r="H15">
-        <v>4.28191750472902</v>
+        <v>60.592764</v>
       </c>
       <c r="I15">
-        <v>0.07017963968976072</v>
+        <v>0.2913941297230567</v>
       </c>
       <c r="J15">
-        <v>0.07017963968976072</v>
+        <v>0.2913941297230566</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.47680559342688</v>
+        <v>50.24424533333334</v>
       </c>
       <c r="N15">
-        <v>7.47680559342688</v>
+        <v>150.732736</v>
       </c>
       <c r="O15">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="P15">
-        <v>0.02817468506655764</v>
+        <v>0.1555699176538776</v>
       </c>
       <c r="Q15">
-        <v>32.0150647499504</v>
+        <v>1014.812566613589</v>
       </c>
       <c r="R15">
-        <v>32.0150647499504</v>
+        <v>9133.313099522305</v>
       </c>
       <c r="S15">
-        <v>0.001977289246343497</v>
+        <v>0.04533216076583924</v>
       </c>
       <c r="T15">
-        <v>0.001977289246343497</v>
+        <v>0.04533216076583924</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.28191750472902</v>
+        <v>20.197588</v>
       </c>
       <c r="H16">
-        <v>4.28191750472902</v>
+        <v>60.592764</v>
       </c>
       <c r="I16">
-        <v>0.07017963968976072</v>
+        <v>0.2913941297230567</v>
       </c>
       <c r="J16">
-        <v>0.07017963968976072</v>
+        <v>0.2913941297230566</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>251.372816573784</v>
+        <v>14.97480166666667</v>
       </c>
       <c r="N16">
-        <v>251.372816573784</v>
+        <v>44.924405</v>
       </c>
       <c r="O16">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="P16">
-        <v>0.947242756650817</v>
+        <v>0.04636607927357893</v>
       </c>
       <c r="Q16">
-        <v>1076.357663500323</v>
+        <v>302.4548744450466</v>
       </c>
       <c r="R16">
-        <v>1076.357663500323</v>
+        <v>2722.09387000542</v>
       </c>
       <c r="S16">
-        <v>0.06647715536049004</v>
+        <v>0.01351080331859479</v>
       </c>
       <c r="T16">
-        <v>0.06647715536049004</v>
+        <v>0.01351080331859479</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.9748491838835</v>
+        <v>20.197588</v>
       </c>
       <c r="H17">
-        <v>11.9748491838835</v>
+        <v>60.592764</v>
       </c>
       <c r="I17">
-        <v>0.1962650144791505</v>
+        <v>0.2913941297230567</v>
       </c>
       <c r="J17">
-        <v>0.1962650144791505</v>
+        <v>0.2913941297230566</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.52355150852913</v>
+        <v>257.4944153333333</v>
       </c>
       <c r="N17">
-        <v>6.52355150852913</v>
+        <v>772.483246</v>
       </c>
       <c r="O17">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="P17">
-        <v>0.02458255828262532</v>
+        <v>0.7972730951372106</v>
       </c>
       <c r="Q17">
-        <v>78.11854545793203</v>
+        <v>5200.766113203549</v>
       </c>
       <c r="R17">
-        <v>78.11854545793203</v>
+        <v>46806.89501883194</v>
       </c>
       <c r="S17">
-        <v>0.00482469615727402</v>
+        <v>0.2323206997091152</v>
       </c>
       <c r="T17">
-        <v>0.00482469615727402</v>
+        <v>0.2323206997091152</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.9748491838835</v>
+        <v>5.476923</v>
       </c>
       <c r="H18">
-        <v>11.9748491838835</v>
+        <v>16.430769</v>
       </c>
       <c r="I18">
-        <v>0.1962650144791505</v>
+        <v>0.07901652470310776</v>
       </c>
       <c r="J18">
-        <v>0.1962650144791505</v>
+        <v>0.07901652470310774</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>7.47680559342688</v>
+        <v>0.2554386666666666</v>
       </c>
       <c r="N18">
-        <v>7.47680559342688</v>
+        <v>0.766316</v>
       </c>
       <c r="O18">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329646</v>
       </c>
       <c r="P18">
-        <v>0.02817468506655764</v>
+        <v>0.0007909079353329647</v>
       </c>
       <c r="Q18">
-        <v>89.53361935850346</v>
+        <v>1.399017908556</v>
       </c>
       <c r="R18">
-        <v>89.53361935850346</v>
+        <v>12.591161177004</v>
       </c>
       <c r="S18">
-        <v>0.005529704972533442</v>
+        <v>6.249479641012115E-05</v>
       </c>
       <c r="T18">
-        <v>0.005529704972533442</v>
+        <v>6.249479641012115E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.476923</v>
+      </c>
+      <c r="H19">
+        <v>16.430769</v>
+      </c>
+      <c r="I19">
+        <v>0.07901652470310776</v>
+      </c>
+      <c r="J19">
+        <v>0.07901652470310774</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>50.24424533333334</v>
+      </c>
+      <c r="N19">
+        <v>150.732736</v>
+      </c>
+      <c r="O19">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="P19">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="Q19">
+        <v>275.183862883776</v>
+      </c>
+      <c r="R19">
+        <v>2476.654765953985</v>
+      </c>
+      <c r="S19">
+        <v>0.01229259424135806</v>
+      </c>
+      <c r="T19">
+        <v>0.01229259424135805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.476923</v>
+      </c>
+      <c r="H20">
+        <v>16.430769</v>
+      </c>
+      <c r="I20">
+        <v>0.07901652470310776</v>
+      </c>
+      <c r="J20">
+        <v>0.07901652470310774</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.97480166666667</v>
+      </c>
+      <c r="N20">
+        <v>44.924405</v>
+      </c>
+      <c r="O20">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="P20">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="Q20">
+        <v>82.01583566860501</v>
+      </c>
+      <c r="R20">
+        <v>738.1425210174451</v>
+      </c>
+      <c r="S20">
+        <v>0.003663686448307002</v>
+      </c>
+      <c r="T20">
+        <v>0.003663686448307002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.476923</v>
+      </c>
+      <c r="H21">
+        <v>16.430769</v>
+      </c>
+      <c r="I21">
+        <v>0.07901652470310776</v>
+      </c>
+      <c r="J21">
+        <v>0.07901652470310774</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>257.4944153333333</v>
+      </c>
+      <c r="N21">
+        <v>772.483246</v>
+      </c>
+      <c r="O21">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="P21">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="Q21">
+        <v>1410.277085710686</v>
+      </c>
+      <c r="R21">
+        <v>12692.49377139618</v>
+      </c>
+      <c r="S21">
+        <v>0.06299774921703258</v>
+      </c>
+      <c r="T21">
+        <v>0.06299774921703256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.02875833333333</v>
+      </c>
+      <c r="H22">
+        <v>51.086275</v>
+      </c>
+      <c r="I22">
+        <v>0.2456768706642553</v>
+      </c>
+      <c r="J22">
+        <v>0.2456768706642553</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2554386666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.766316</v>
+      </c>
+      <c r="O22">
+        <v>0.0007909079353329646</v>
+      </c>
+      <c r="P22">
+        <v>0.0007909079353329647</v>
+      </c>
+      <c r="Q22">
+        <v>4.349803323655555</v>
+      </c>
+      <c r="R22">
+        <v>39.1482299129</v>
+      </c>
+      <c r="S22">
+        <v>0.0001943077865361299</v>
+      </c>
+      <c r="T22">
+        <v>0.00019430778653613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.02875833333333</v>
+      </c>
+      <c r="H23">
+        <v>51.086275</v>
+      </c>
+      <c r="I23">
+        <v>0.2456768706642553</v>
+      </c>
+      <c r="J23">
+        <v>0.2456768706642553</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>50.24424533333334</v>
+      </c>
+      <c r="N23">
+        <v>150.732736</v>
+      </c>
+      <c r="O23">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="P23">
+        <v>0.1555699176538776</v>
+      </c>
+      <c r="Q23">
+        <v>855.5971114220445</v>
+      </c>
+      <c r="R23">
+        <v>7700.374002798401</v>
+      </c>
+      <c r="S23">
+        <v>0.03821993053870053</v>
+      </c>
+      <c r="T23">
+        <v>0.03821993053870053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.02875833333333</v>
+      </c>
+      <c r="H24">
+        <v>51.086275</v>
+      </c>
+      <c r="I24">
+        <v>0.2456768706642553</v>
+      </c>
+      <c r="J24">
+        <v>0.2456768706642553</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.97480166666667</v>
+      </c>
+      <c r="N24">
+        <v>44.924405</v>
+      </c>
+      <c r="O24">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="P24">
+        <v>0.04636607927357893</v>
+      </c>
+      <c r="Q24">
+        <v>255.0022786712639</v>
+      </c>
+      <c r="R24">
+        <v>2295.020508041375</v>
+      </c>
+      <c r="S24">
+        <v>0.01139107326090366</v>
+      </c>
+      <c r="T24">
+        <v>0.01139107326090366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>11.9748491838835</v>
-      </c>
-      <c r="H19">
-        <v>11.9748491838835</v>
-      </c>
-      <c r="I19">
-        <v>0.1962650144791505</v>
-      </c>
-      <c r="J19">
-        <v>0.1962650144791505</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>251.372816573784</v>
-      </c>
-      <c r="N19">
-        <v>251.372816573784</v>
-      </c>
-      <c r="O19">
-        <v>0.947242756650817</v>
-      </c>
-      <c r="P19">
-        <v>0.947242756650817</v>
-      </c>
-      <c r="Q19">
-        <v>3010.151567399074</v>
-      </c>
-      <c r="R19">
-        <v>3010.151567399074</v>
-      </c>
-      <c r="S19">
-        <v>0.1859106133493431</v>
-      </c>
-      <c r="T19">
-        <v>0.1859106133493431</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.02875833333333</v>
+      </c>
+      <c r="H25">
+        <v>51.086275</v>
+      </c>
+      <c r="I25">
+        <v>0.2456768706642553</v>
+      </c>
+      <c r="J25">
+        <v>0.2456768706642553</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>257.4944153333333</v>
+      </c>
+      <c r="N25">
+        <v>772.483246</v>
+      </c>
+      <c r="O25">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="P25">
+        <v>0.7972730951372106</v>
+      </c>
+      <c r="Q25">
+        <v>4384.810170894294</v>
+      </c>
+      <c r="R25">
+        <v>39463.29153804865</v>
+      </c>
+      <c r="S25">
+        <v>0.195871559078115</v>
+      </c>
+      <c r="T25">
+        <v>0.195871559078115</v>
       </c>
     </row>
   </sheetData>
